--- a/Data_new.xlsx
+++ b/Data_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A4AE7-9EFB-3A45-BC63-409941B9C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996102A-C0D6-5841-B330-0E34BF42C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
   <sheets>
     <sheet name="3yr" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -113,13 +113,25 @@
   </si>
   <si>
     <t>times_watched_test videos_inconsistent_(min 2)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>she pointed out the numbers in the familiarization video titles</t>
+  </si>
+  <si>
+    <t>3.10.</t>
+  </si>
+  <si>
+    <t>I asked the "do you remember many movies watched before" Q before the "do you want to watch this movie again" Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +140,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +177,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,25 +190,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,254 +526,359 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A72-F2BC-1946-917E-7D386FB1F6C5}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>3.4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>3.3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>3</v>
-      </c>
-      <c r="O3" s="8">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>3.2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>3</v>
-      </c>
-      <c r="N4" s="10">
-        <v>3</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11" t="s">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="3"/>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K6" s="3"/>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,202 +887,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990CF00B-CC4F-704A-9D46-40841DCD5560}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>3</v>
-      </c>
-      <c r="N3" s="9">
-        <v>2</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K4" s="3"/>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="3"/>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K6" s="3"/>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
